--- a/TuduApplication/TestData/password.xlsx
+++ b/TuduApplication/TestData/password.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikesh\git\MYtudu\TuduApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937FEFE-66CA-4B81-B830-0689A4C62EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE083A91-BC73-4458-9E55-343826CEA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
   </bookViews>
